--- a/xlsx/人类社会_intext.xlsx
+++ b/xlsx/人类社会_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="495">
   <si>
     <t>人类社会</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>人類學</t>
+    <t>人类学</t>
   </si>
   <si>
     <t>政策_政策_政治_人类社会</t>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%94%E8%B3%AA%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>體質人類學</t>
+    <t>体质人类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E4%BA%BA%E7%B1%BB%E5%AD%A6</t>
@@ -47,43 +47,43 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>語言人類學</t>
+    <t>语言人类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會人類學</t>
+    <t>社会人类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%83%E5%8F%A4%E5%AD%B8</t>
   </si>
   <si>
-    <t>考古學</t>
+    <t>考古学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E7%94%A8%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>應用人類學</t>
+    <t>应用人类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E8%AA%8C</t>
   </si>
   <si>
-    <t>民族誌</t>
+    <t>民族志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%83%E8%88%87%E8%A7%80%E5%AF%9F</t>
   </si>
   <si>
-    <t>參與觀察</t>
+    <t>参与观察</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E7%9B%B8%E5%B0%8D%E8%AB%96</t>
   </si>
   <si>
-    <t>文化相對論</t>
+    <t>文化相对论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>社會</t>
+    <t>社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E5%89%8D%E5%8F%B2</t>
@@ -107,13 +107,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E6%BC%94%E5%8C%96</t>
   </si>
   <si>
-    <t>人類演化</t>
+    <t>人类演化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A6%AA%E5%B1%AC</t>
   </si>
   <si>
-    <t>親屬</t>
+    <t>亲属</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A9%9A%E5%A7%BB</t>
@@ -131,13 +131,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E8%B3%AA%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>物質文化</t>
+    <t>物质文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E6%97%8F</t>
   </si>
   <si>
-    <t>種族</t>
+    <t>种族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F</t>
@@ -149,19 +149,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5</t>
   </si>
   <si>
-    <t>性別</t>
+    <t>性别</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%8C%96</t>
   </si>
   <si>
-    <t>社會化</t>
+    <t>社会化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AE%96%E6%B0%91%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>殖民主義</t>
+    <t>殖民主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E4%BA%BA%E7%B1%BB%E5%AD%A6</t>
@@ -173,19 +173,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>生態人類學</t>
+    <t>生态人类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>經濟人類學</t>
+    <t>经济人类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E5%AD%B8</t>
   </si>
   <si>
-    <t>民族學</t>
+    <t>民族学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%8C%BB%E4%BA%BA%E7%B1%BB%E5%AD%A6</t>
@@ -197,37 +197,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AA%92%E9%AB%94%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>媒體人類學</t>
+    <t>媒体人类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E7%99%82%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>醫療人類學</t>
+    <t>医疗人类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E5%B8%82%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>都市人類學</t>
+    <t>都市人类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A6%96%E8%A6%BA%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>視覺人類學</t>
+    <t>视觉人类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>歷史人類學</t>
+    <t>历史人类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E5%AD%B8%E5%8F%B2</t>
   </si>
   <si>
-    <t>人類學史</t>
+    <t>人类学史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%B1%BB%E5%AD%A6%E5%AE%B6%E5%88%97%E8%A1%A8</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8%E5%8F%B2</t>
   </si>
   <si>
-    <t>社會學史</t>
+    <t>社会学史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9E%E8%AF%81%E4%B8%BB%E4%B9%89</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E6%A7%8B%E8%88%87%E8%83%BD%E5%8B%95%E6%80%A7</t>
   </si>
   <si>
-    <t>結構與能動性</t>
+    <t>结构与能动性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E8%B0%83%E6%9F%A5</t>
@@ -323,19 +323,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E7%AE%97%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
   </si>
   <si>
-    <t>計算社會學</t>
+    <t>计算社会学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E8%AE%8A%E9%81%B7</t>
   </si>
   <si>
-    <t>社會變遷</t>
+    <t>社会变迁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E5%B8%82%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
   </si>
   <si>
-    <t>都市社會學</t>
+    <t>都市社会学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E9%98%B6%E5%B1%82</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8A%AF%E7%BD%AA%E5%AD%B8</t>
   </si>
   <si>
-    <t>犯罪學</t>
+    <t>犯罪学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%96%87%E5%8C%96</t>
@@ -365,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E8%BB%8C%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
   </si>
   <si>
-    <t>越軌社會學</t>
+    <t>越轨社会学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E5%AD%A6</t>
@@ -383,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%B8%8D%E5%B9%B3%E7%AD%89</t>
   </si>
   <si>
-    <t>社會不平等</t>
+    <t>社会不平等</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
@@ -413,13 +413,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
   </si>
   <si>
-    <t>工業社會學</t>
+    <t>工业社会学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E9%9A%9B%E7%B6%B2%E8%B7%AF%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
   </si>
   <si>
-    <t>網際網路社會學</t>
+    <t>网际网路社会学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AF%86%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
@@ -455,7 +455,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>社會運動</t>
+    <t>社会运动</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Organizational_theory</t>
@@ -479,7 +479,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%84%89%E6%9D%91%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
   </si>
   <si>
-    <t>鄉村社會學</t>
+    <t>乡村社会学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
@@ -521,7 +521,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A4%E9%AB%94</t>
   </si>
   <si>
-    <t>群體</t>
+    <t>群体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E4%BF%97%E5%8C%96</t>
@@ -539,7 +539,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%BC%81%E6%A5%AD</t>
   </si>
   <si>
-    <t>社會企業</t>
+    <t>社会企业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%BF%83%E7%90%86%E5%AD%A6</t>
@@ -551,13 +551,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>經濟地理學</t>
+    <t>经济地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E6%80%9D%E6%83%B3%E5%8F%B2</t>
   </si>
   <si>
-    <t>經濟思想史</t>
+    <t>经济思想史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E7%94%9F%E7%89%A9%E5%AD%A6</t>
@@ -581,7 +581,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會地理學</t>
+    <t>社会地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E8%AF%AD%E8%A8%80%E5%AD%A6</t>
@@ -593,19 +593,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AA%92%E9%AB%94%E7%A0%94%E7%A9%B6</t>
   </si>
   <si>
-    <t>媒體研究</t>
+    <t>媒体研究</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會哲學</t>
+    <t>社会哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%B5%B1%E8%A8%88%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會統計學</t>
+    <t>社会统计学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B3%BB%E7%BB%9F%E7%A7%91%E5%AD%A6</t>
@@ -617,7 +617,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%AB%94%E7%B3%BB%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>世界體系理論</t>
+    <t>世界体系理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
@@ -629,19 +629,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%80%8B%E9%AB%94</t>
   </si>
   <si>
-    <t>個體</t>
+    <t>个体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E9%96%93</t>
   </si>
   <si>
-    <t>空間</t>
+    <t>空间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E4%BF%97</t>
   </si>
   <si>
-    <t>風俗</t>
+    <t>风俗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%A0%E6%83%AF</t>
@@ -653,19 +653,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E</t>
   </si>
   <si>
-    <t>人類</t>
+    <t>人类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>科學</t>
+    <t>科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%B9%BB%E5%B0%8F%E8%AA%AA</t>
   </si>
   <si>
-    <t>科幻小說</t>
+    <t>科幻小说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E6%98%9F%E4%BA%BA</t>
@@ -677,7 +677,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%84%89</t>
   </si>
   <si>
-    <t>鄉</t>
+    <t>乡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%91</t>
@@ -689,7 +689,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8E%AE</t>
   </si>
   <si>
-    <t>鎮</t>
+    <t>镇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E5%B8%82</t>
@@ -701,7 +701,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>國家</t>
+    <t>国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%B2</t>
@@ -719,19 +719,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%9E</t>
   </si>
   <si>
-    <t>東亞</t>
+    <t>东亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%97%E4%BA%9E</t>
   </si>
   <si>
-    <t>東南亞</t>
+    <t>东南亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9</t>
@@ -743,21 +743,15 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BF%92%E4%BF%97</t>
   </si>
   <si>
-    <t>習俗</t>
+    <t>习俗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A4%E4%BD%93</t>
   </si>
   <si>
-    <t>群体</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%A7%8B%E9%83%A8%E8%90%BD</t>
   </si>
   <si>
@@ -809,31 +803,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E6%BE%A4%E8%AB%AD%E5%90%89</t>
   </si>
   <si>
-    <t>福澤諭吉</t>
+    <t>福泽谕吉</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E5%AD%A6%E5%95%8F%E3%81%AE%E3%81%99%E3%82%9D%E3%82%81</t>
   </si>
   <si>
-    <t>ja-学問のすゝめ</t>
+    <t>ja-学问のすゝめ</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E8%A3%BD%E6%BC%A2%E8%AA%9E</t>
   </si>
   <si>
-    <t>和製漢語</t>
+    <t>和制汉语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9A%B4%E5%BE%A9</t>
   </si>
   <si>
-    <t>嚴復</t>
+    <t>严复</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%A9%E7%8D%B5%E6%8E%A1%E9%9B%86</t>
   </si>
   <si>
-    <t>狩獵採集</t>
+    <t>狩猎采集</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A7%E4%B8%9A</t>
@@ -845,15 +839,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E5%B7%A5%E6%A5%AD%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>後工業社會</t>
+    <t>后工业社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%B1%BB%E5%AD%A6</t>
   </si>
   <si>
-    <t>人类学</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Maurice_Godelier</t>
   </si>
   <si>
@@ -863,13 +854,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%88%E9%95%B7%E7%9B%AE</t>
   </si>
   <si>
-    <t>靈長目</t>
+    <t>灵长目</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>社會學家</t>
+    <t>社会学家</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Gerhard_Lenski</t>
@@ -881,7 +872,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>人類學家</t>
+    <t>人类学家</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Morton_Fried</t>
@@ -905,7 +896,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E6%BC%94%E5%8C%96</t>
   </si>
   <si>
-    <t>社會演化</t>
+    <t>社会演化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%A8%E8%90%BD</t>
@@ -959,19 +950,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%92%E8%97%9D</t>
   </si>
   <si>
-    <t>園藝</t>
+    <t>园艺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>農業社會</t>
+    <t>农业社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E5%BB%BA%E5%88%B6%E5%BA%A6_(%E6%AD%90%E6%B4%B2)</t>
   </si>
   <si>
-    <t>封建制度 (歐洲)</t>
+    <t>封建制度 (欧洲)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%B8%8C%E6%9B%BC%E4%BA%BA</t>
@@ -989,7 +980,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%BA%E7%89%A9</t>
   </si>
   <si>
-    <t>遺物</t>
+    <t>遗物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%9E%97%E5%90%89%E7%89%B9%E4%BA%BA</t>
@@ -1007,7 +998,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E5%B0%8E%E5%8A%9B</t>
   </si>
   <si>
-    <t>領導力</t>
+    <t>领导力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%8B%E9%95%BF</t>
@@ -1043,7 +1034,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%A0%E5%AF%B6</t>
   </si>
   <si>
-    <t>珠寶</t>
+    <t>珠宝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%A2%E5%AF%8C</t>
@@ -1073,7 +1064,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%AB%E8%A6%A1%E5%AE%97%E6%95%99</t>
   </si>
   <si>
-    <t>巫覡宗教</t>
+    <t>巫觋宗教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A2%86%E4%B8%BB</t>
@@ -1085,13 +1076,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E5%9F%9F%E7%AD%89%E7%B4%9A</t>
   </si>
   <si>
-    <t>領域等級</t>
+    <t>领域等级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>資本主義</t>
+    <t>资本主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E6%96%87%E5%8C%96</t>
@@ -1109,19 +1100,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>資訊社會</t>
+    <t>资讯社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E8%B7%AF%E7%A9%BA%E9%96%93</t>
   </si>
   <si>
-    <t>網路空間</t>
+    <t>网路空间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%9B%9F</t>
   </si>
   <si>
-    <t>歐盟</t>
+    <t>欧盟</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/digital_economy</t>
@@ -1139,7 +1130,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E6%9C%8D%E5%8B%99</t>
   </si>
   <si>
-    <t>公共服務</t>
+    <t>公共服务</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%B4%BB%E8%B4%A8%E9%87%8F</t>
@@ -1181,7 +1172,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B2%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>干尼亞</t>
+    <t>干尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E4%B8%9A%E7%BA%A7%E8%BD%AF%E4%BB%B6</t>
@@ -1217,7 +1208,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%8D%E5%8B%99%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>服務科學</t>
+    <t>服务科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8A%9B%E8%B5%84%E6%9C%AC</t>
@@ -1235,25 +1226,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E6%84%8F%E7%94%A2%E6%A5%AD</t>
   </si>
   <si>
-    <t>創意產業</t>
+    <t>创意产业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會科學</t>
+    <t>社会科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%E6%80%9D%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>馬克思主義</t>
+    <t>马克思主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E5%B8%82%E7%94%9F%E6%85%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>都市生態學</t>
+    <t>都市生态学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E7%A4%BE%E4%BC%9A</t>
@@ -1265,13 +1256,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>消費主義</t>
+    <t>消费主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%81%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>上流社會</t>
+    <t>上流社会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mass_society</t>
@@ -1295,7 +1286,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E6%A5%AD%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>專業機構</t>
+    <t>专业机构</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Scientific_society</t>
@@ -1307,15 +1298,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E5%AF%86%E7%B5%90%E7%A4%BE</t>
   </si>
   <si>
-    <t>秘密結社</t>
+    <t>秘密结社</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會生物學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E8%A1%8C%E5%8A%A8</t>
   </si>
   <si>
@@ -1343,7 +1331,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%A5%91%E7%B4%84</t>
   </si>
   <si>
-    <t>社會契約</t>
+    <t>社会契约</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Social_disintegration</t>
@@ -1355,7 +1343,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%A7%A9%E5%BA%8F</t>
   </si>
   <si>
-    <t>社會秩序</t>
+    <t>社会秩序</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%A2%E7%BB%93</t>
@@ -1373,7 +1361,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%B7%A5%E4%BD%9C</t>
   </si>
   <si>
-    <t>社會工作</t>
+    <t>社会工作</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
@@ -1421,7 +1409,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E8%85%A6</t>
   </si>
   <si>
-    <t>人腦</t>
+    <t>人脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%B1%BB%E5%A4%96%E8%B2%8C</t>
@@ -1445,13 +1433,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%80%A7%E5%BE%B5</t>
   </si>
   <si>
-    <t>第二性徵</t>
+    <t>第二性征</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%8C%A2</t>
   </si>
   <si>
-    <t>金錢</t>
+    <t>金钱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%83%E5%88%A9</t>
@@ -1475,9 +1463,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6</t>
   </si>
   <si>
-    <t>科学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6</t>
   </si>
   <si>
@@ -1493,7 +1478,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1505,7 +1490,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A</t>
@@ -5481,7 +5466,7 @@
         <v>243</v>
       </c>
       <c r="F125" t="s">
-        <v>244</v>
+        <v>74</v>
       </c>
       <c r="G125" t="n">
         <v>6</v>
@@ -5507,10 +5492,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F126" t="s">
-        <v>246</v>
+        <v>168</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -5536,10 +5521,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F127" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -5565,10 +5550,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F128" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -5594,10 +5579,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F129" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G129" t="n">
         <v>4</v>
@@ -5652,10 +5637,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F131" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5681,10 +5666,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F132" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G132" t="n">
         <v>12</v>
@@ -5710,10 +5695,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F133" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5739,10 +5724,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F134" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5768,10 +5753,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F135" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5797,10 +5782,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F136" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5826,10 +5811,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F137" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -5855,10 +5840,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F138" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5884,10 +5869,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F139" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G139" t="n">
         <v>2</v>
@@ -5913,10 +5898,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F140" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5942,10 +5927,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F141" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -5971,10 +5956,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F142" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6000,10 +5985,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F143" t="s">
-        <v>278</v>
+        <v>3</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6029,10 +6014,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F144" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G144" t="n">
         <v>2</v>
@@ -6058,10 +6043,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F145" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6087,10 +6072,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F146" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G146" t="n">
         <v>3</v>
@@ -6116,10 +6101,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F147" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6145,10 +6130,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F148" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G148" t="n">
         <v>4</v>
@@ -6174,10 +6159,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F149" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6203,10 +6188,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F150" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6232,10 +6217,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F151" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6261,10 +6246,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F152" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6290,10 +6275,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F153" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G153" t="n">
         <v>9</v>
@@ -6319,10 +6304,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F154" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6348,10 +6333,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F155" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6377,10 +6362,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F156" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6406,10 +6391,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F157" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6435,10 +6420,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F158" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6464,10 +6449,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F159" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G159" t="n">
         <v>5</v>
@@ -6493,10 +6478,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F160" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6522,10 +6507,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F161" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G161" t="n">
         <v>12</v>
@@ -6551,10 +6536,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F162" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G162" t="n">
         <v>2</v>
@@ -6580,10 +6565,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F163" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G163" t="n">
         <v>10</v>
@@ -6609,10 +6594,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F164" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G164" t="n">
         <v>6</v>
@@ -6638,10 +6623,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F165" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G165" t="n">
         <v>6</v>
@@ -6667,10 +6652,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F166" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6725,10 +6710,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F168" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6754,10 +6739,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F169" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6783,10 +6768,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F170" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6812,10 +6797,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F171" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6841,10 +6826,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F172" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6870,10 +6855,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F173" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G173" t="n">
         <v>2</v>
@@ -6899,10 +6884,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F174" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6928,10 +6913,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F175" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6957,10 +6942,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F176" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G176" t="n">
         <v>5</v>
@@ -6986,10 +6971,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F177" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7015,10 +7000,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F178" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7044,10 +7029,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F179" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7073,10 +7058,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F180" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G180" t="n">
         <v>7</v>
@@ -7102,10 +7087,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F181" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7131,10 +7116,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F182" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7160,10 +7145,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F183" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G183" t="n">
         <v>4</v>
@@ -7189,10 +7174,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F184" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7218,10 +7203,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F185" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G185" t="n">
         <v>3</v>
@@ -7247,10 +7232,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F186" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G186" t="n">
         <v>6</v>
@@ -7276,10 +7261,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F187" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7305,10 +7290,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F188" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G188" t="n">
         <v>3</v>
@@ -7334,10 +7319,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F189" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7363,10 +7348,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F190" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7392,10 +7377,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F191" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G191" t="n">
         <v>9</v>
@@ -7421,10 +7406,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F192" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7450,10 +7435,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F193" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7479,10 +7464,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F194" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7508,10 +7493,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F195" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G195" t="n">
         <v>2</v>
@@ -7537,10 +7522,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F196" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7566,10 +7551,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F197" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7595,10 +7580,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F198" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7624,10 +7609,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F199" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7653,10 +7638,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F200" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7682,10 +7667,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F201" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7711,10 +7696,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F202" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7740,10 +7725,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F203" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7769,10 +7754,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F204" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7798,10 +7783,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F205" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7827,10 +7812,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F206" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7856,10 +7841,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F207" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7885,10 +7870,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F208" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7914,10 +7899,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F209" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7943,10 +7928,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F210" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7972,10 +7957,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F211" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8001,10 +7986,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F212" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8030,10 +8015,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F213" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8059,10 +8044,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F214" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8088,10 +8073,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F215" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8117,10 +8102,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F216" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8146,10 +8131,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F217" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8175,10 +8160,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F218" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8204,10 +8189,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F219" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8233,10 +8218,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F220" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8262,10 +8247,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F221" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8291,10 +8276,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F222" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8320,10 +8305,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F223" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8349,10 +8334,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F224" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8378,10 +8363,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F225" t="s">
-        <v>432</v>
+        <v>182</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8407,10 +8392,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F226" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8436,10 +8421,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F227" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8465,10 +8450,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F228" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8494,10 +8479,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F229" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8523,10 +8508,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F230" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8552,10 +8537,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F231" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8581,10 +8566,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F232" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8610,10 +8595,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F233" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8639,10 +8624,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F234" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G234" t="n">
         <v>2</v>
@@ -8668,10 +8653,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F235" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8697,10 +8682,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F236" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G236" t="n">
         <v>2</v>
@@ -8726,10 +8711,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F237" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8755,10 +8740,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F238" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8784,10 +8769,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F239" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G239" t="n">
         <v>2</v>
@@ -8813,10 +8798,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F240" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G240" t="n">
         <v>6</v>
@@ -8871,10 +8856,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F242" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G242" t="n">
         <v>6</v>
@@ -8900,10 +8885,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F243" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -8929,10 +8914,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F244" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -8958,10 +8943,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F245" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -8987,10 +8972,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F246" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9016,10 +9001,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F247" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G247" t="n">
         <v>2</v>
@@ -9045,10 +9030,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F248" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G248" t="n">
         <v>2</v>
@@ -9074,10 +9059,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F249" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9103,10 +9088,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F250" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9132,10 +9117,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F251" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9161,10 +9146,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F252" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9190,10 +9175,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F253" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9219,10 +9204,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F254" t="s">
-        <v>486</v>
+        <v>214</v>
       </c>
       <c r="G254" t="n">
         <v>4</v>
@@ -9248,10 +9233,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="F255" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9277,10 +9262,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F256" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9306,10 +9291,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F257" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="G257" t="n">
         <v>3</v>
@@ -9335,10 +9320,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="F258" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9364,10 +9349,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="F259" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9393,10 +9378,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="F260" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="G260" t="n">
         <v>18</v>
@@ -9422,10 +9407,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="F261" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
